--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFECC71-9C8C-B24B-8C9A-4A31A36305F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC813386-191E-1246-93A1-10F501C029B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27760" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="-18040" windowWidth="27580" windowHeight="17360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mIF_template" sheetId="1" r:id="rId1"/>
@@ -88,12 +88,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Study related collection time point, as described in the protocol intake form. Example: Progression.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="82">
   <si>
     <t>#t</t>
   </si>
@@ -107,6 +120,15 @@
     <t>LEAD ORGANIZATION STUDY ID</t>
   </si>
   <si>
+    <t>ASSAY CREATOR</t>
+  </si>
+  <si>
+    <t>EMAIL ADDRESS</t>
+  </si>
+  <si>
+    <t>UPLOADER</t>
+  </si>
+  <si>
     <t>SLIDE SCANNER MODEL</t>
   </si>
   <si>
@@ -242,10 +264,16 @@
     <t>E4412</t>
   </si>
   <si>
-    <t>Hamamatsu</t>
-  </si>
-  <si>
-    <t>auto</t>
+    <t>James Lindsay</t>
+  </si>
+  <si>
+    <t>jlo@jimmy.com</t>
+  </si>
+  <si>
+    <t>Vectra 2.0</t>
+  </si>
+  <si>
+    <t>manual</t>
   </si>
   <si>
     <t>Leica Bond RX</t>
@@ -290,13 +318,16 @@
     <t>RT</t>
   </si>
   <si>
-    <t>Goat Anti-Mouse</t>
+    <t>Goat Anti-mouse</t>
   </si>
   <si>
     <t>Dako</t>
   </si>
   <si>
-    <t>PH6</t>
+    <t>Dako Target Retrieval</t>
+  </si>
+  <si>
+    <t>pH6</t>
   </si>
   <si>
     <t>MA036-001</t>
@@ -305,7 +336,7 @@
     <t>MA036-001 PRE</t>
   </si>
   <si>
-    <t>07FK099</t>
+    <t>07FK 099</t>
   </si>
   <si>
     <t>PRE</t>
@@ -314,7 +345,7 @@
     <t>T-Cell HNSC</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>No</t>
   </si>
   <si>
     <t>ABC_Inform</t>
@@ -327,7 +358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +379,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -411,10 +450,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -425,10 +465,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -765,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X213"/>
+  <dimension ref="A1:X216"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -815,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -847,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -878,8 +922,8 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -911,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -943,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -967,7 +1011,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -975,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1007,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1039,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1063,7 +1107,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1095,1204 +1139,1303 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14">
-        <v>326842678</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="4">
-        <v>4.7222222222222221E-2</v>
-      </c>
-      <c r="N14" s="4">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="O14" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14">
-        <v>213423</v>
-      </c>
-      <c r="S14">
-        <v>5645</v>
-      </c>
-      <c r="T14" s="4">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="U14" s="4">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="V14" t="s">
-        <v>66</v>
-      </c>
-      <c r="W14" t="s">
-        <v>67</v>
-      </c>
-      <c r="X14" s="4">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <v>23487852</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17">
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="N17" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17">
+        <v>213423</v>
+      </c>
+      <c r="S17">
+        <v>5645</v>
+      </c>
+      <c r="T17" s="5">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="U17" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="V17" t="s">
+        <v>72</v>
+      </c>
+      <c r="W17" t="s">
+        <v>73</v>
+      </c>
+      <c r="X17" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:X1"/>
-    <mergeCell ref="B12:X12"/>
+    <mergeCell ref="B15:X15"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"InForm,QuPath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"proprietary,watershed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"proprietary,random forest classifier"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="N14:N213 X14:X213 U14:U213" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="N17:N216 X17:X216 U17:U216" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{6050CCC9-9C20-3147-825B-B0843E3E0A55}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2301,7 +2444,7 @@
   <dimension ref="A1:X204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2318,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2344,7 +2487,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2358,1081 +2501,1078 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="5">
+        <v>78</v>
+      </c>
+      <c r="G5" s="6">
         <v>35796</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>35797</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:K3"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E204" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"PRE,POST"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="G5:H204" xr:uid="{00000000-0002-0000-0100-000001000000}">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="G5:H204" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>AND(ISNUMBER(G5:G204),LEFT(CELL("format",G5:G204),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I204" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I204" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC813386-191E-1246-93A1-10F501C029B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2C646A-2C97-374E-B6C0-574969F3AF40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="-18040" windowWidth="27580" windowHeight="17360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-360" yWindow="-17400" windowWidth="21740" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mIF_template" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,32 @@
             <family val="2"/>
           </rPr>
           <t>Trial identifier used by lead organization, e.g. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicates what site is filling out the assay</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assay category.</t>
         </r>
       </text>
     </comment>
@@ -106,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="80">
   <si>
     <t>#t</t>
   </si>
@@ -123,10 +149,7 @@
     <t>ASSAY CREATOR</t>
   </si>
   <si>
-    <t>EMAIL ADDRESS</t>
-  </si>
-  <si>
-    <t>UPLOADER</t>
+    <t>ASSAY CATEGORY</t>
   </si>
   <si>
     <t>SLIDE SCANNER MODEL</t>
@@ -207,13 +230,13 @@
     <t>S. ANTIBODY</t>
   </si>
   <si>
-    <t>COMPANY</t>
-  </si>
-  <si>
-    <t>CAT #</t>
-  </si>
-  <si>
-    <t>LOT #</t>
+    <t>S. COMPANY</t>
+  </si>
+  <si>
+    <t>S. CAT #</t>
+  </si>
+  <si>
+    <t>S. LOT #</t>
   </si>
   <si>
     <t>S. ANTIBODY DILUTION</t>
@@ -261,34 +284,28 @@
     <t>EXPORTED_DATA_FOLDER</t>
   </si>
   <si>
-    <t>E4412</t>
-  </si>
-  <si>
-    <t>James Lindsay</t>
-  </si>
-  <si>
-    <t>jlo@jimmy.com</t>
+    <t>DFCI</t>
+  </si>
+  <si>
+    <t>Multiplex Immunohistochemistry</t>
   </si>
   <si>
     <t>Vectra 2.0</t>
   </si>
   <si>
-    <t>manual</t>
+    <t>auto</t>
   </si>
   <si>
     <t>Leica Bond RX</t>
   </si>
   <si>
-    <t>QuPath</t>
+    <t>InForm</t>
   </si>
   <si>
     <t>0.2.0</t>
   </si>
   <si>
-    <t>watershed</t>
-  </si>
-  <si>
-    <t>random forest classifier</t>
+    <t>proprietary</t>
   </si>
   <si>
     <t>Celebi Lab Melanoma Project</t>
@@ -330,28 +347,31 @@
     <t>pH6</t>
   </si>
   <si>
-    <t>MA036-001</t>
-  </si>
-  <si>
-    <t>MA036-001 PRE</t>
-  </si>
-  <si>
-    <t>07FK 099</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>T-Cell HNSC</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>ABC_Inform</t>
-  </si>
-  <si>
-    <t>ABC</t>
+    <t>CD3</t>
+  </si>
+  <si>
+    <t>2GV6</t>
+  </si>
+  <si>
+    <t>Ventana</t>
+  </si>
+  <si>
+    <t>790-4341</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>IgG</t>
+  </si>
+  <si>
+    <t>RTU</t>
+  </si>
+  <si>
+    <t>Goat Anti-rabbit</t>
+  </si>
+  <si>
+    <t>pH9</t>
   </si>
 </sst>
 </file>
@@ -381,9 +401,8 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -450,11 +469,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -465,14 +483,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -809,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X216"/>
+  <dimension ref="A1:X215"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -858,8 +882,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
+      <c r="C2" s="1">
+        <v>10021</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -891,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -922,8 +946,8 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>53</v>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -987,7 +1011,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1019,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1051,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1075,7 +1099,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1083,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1107,7 +1131,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1147,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1179,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1203,1239 +1227,1279 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="5">
+        <v>23487852</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="5">
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" s="5">
+        <v>213423</v>
+      </c>
+      <c r="S16" s="5">
+        <v>5645</v>
+      </c>
+      <c r="T16" s="7">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="U16" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X16" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="5">
+        <v>87354867</v>
+      </c>
+      <c r="G17" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="H17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17">
-        <v>23487852</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="P17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M17">
-        <v>9.722222222222221E-2</v>
-      </c>
-      <c r="N17" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="R17" s="5">
+        <v>645456</v>
+      </c>
+      <c r="S17" s="5">
+        <v>7656</v>
+      </c>
+      <c r="T17" s="7">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="U17" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="V17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="P17" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>71</v>
-      </c>
-      <c r="R17">
-        <v>213423</v>
-      </c>
-      <c r="S17">
-        <v>5645</v>
-      </c>
-      <c r="T17" s="5">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="U17" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="V17" t="s">
-        <v>72</v>
-      </c>
-      <c r="W17" t="s">
-        <v>73</v>
-      </c>
-      <c r="X17" s="5">
+      <c r="W17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X17" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:X1"/>
-    <mergeCell ref="B15:X15"/>
+    <mergeCell ref="B14:X14"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"DFCI,Mount Sinai, Stanford, MD Anderson"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"Whole Exome Sequencing (WES),RNASeq,Conventional Immunohistochemistry,Multiplex Immunohistochemistry,Multiplex Immunofluorescence,CyTOF,OLink,NanoString,ELISpot,Multiplexed Ion-Beam Imaging (MIBI),Other,None"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"InForm,QuPath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"proprietary,watershed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"proprietary,random forest classifier"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="N17:N216 X17:X216 U17:U216" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="N16:N215 X16:X215 U16:U215" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{6050CCC9-9C20-3147-825B-B0843E3E0A55}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2443,9 +2507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2460,9 +2522,7 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2487,7 +2547,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2501,1067 +2561,1037 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="6">
-        <v>35796</v>
-      </c>
-      <c r="H5" s="6">
-        <v>35797</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2C646A-2C97-374E-B6C0-574969F3AF40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA7DAB-F222-9046-991A-299D208CC5D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="-17400" windowWidth="21740" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="-18540" windowWidth="24600" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mIF_template" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="98">
   <si>
     <t>#t</t>
   </si>
@@ -284,6 +284,9 @@
     <t>EXPORTED_DATA_FOLDER</t>
   </si>
   <si>
+    <t>E4412</t>
+  </si>
+  <si>
     <t>DFCI</t>
   </si>
   <si>
@@ -305,6 +308,9 @@
     <t>0.2.0</t>
   </si>
   <si>
+    <t>watershed</t>
+  </si>
+  <si>
     <t>proprietary</t>
   </si>
   <si>
@@ -372,6 +378,54 @@
   </si>
   <si>
     <t>pH9</t>
+  </si>
+  <si>
+    <t>MA036-001</t>
+  </si>
+  <si>
+    <t>MA036-001 PRE</t>
+  </si>
+  <si>
+    <t>07FK 099</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>T-cell HNSC</t>
+  </si>
+  <si>
+    <t>ABC_INFORM</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>MA036-002</t>
+  </si>
+  <si>
+    <t>BS-18-38992 A2</t>
+  </si>
+  <si>
+    <t>4KHI 021</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>MA036-003</t>
+  </si>
+  <si>
+    <t>MA036-003 C1D1</t>
+  </si>
+  <si>
+    <t>8KBI 022</t>
+  </si>
+  <si>
+    <t>C1D1</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -472,16 +526,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -494,6 +545,12 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -849,31 +906,31 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -882,8 +939,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>10021</v>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -915,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -947,7 +1004,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -979,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1011,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1043,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1075,7 +1132,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1107,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1139,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1171,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1203,7 +1260,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1228,31 +1285,31 @@
       <c r="X12" s="1"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1332,73 +1389,73 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="5">
+      <c r="D16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="4">
         <v>23487852</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="5">
+      <c r="I16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="4">
         <v>9.722222222222221E-2</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="5" t="s">
+      <c r="O16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="5">
+      <c r="P16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R16" s="4">
         <v>213423</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="4">
         <v>5645</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="6">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="V16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="X16" s="7">
+      <c r="V16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X16" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -1406,73 +1463,73 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="4">
+        <v>87354867</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R17" s="4">
+        <v>645456</v>
+      </c>
+      <c r="S17" s="4">
+        <v>7656</v>
+      </c>
+      <c r="T17" s="6">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="U17" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="V17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="5">
-        <v>87354867</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R17" s="5">
-        <v>645456</v>
-      </c>
-      <c r="S17" s="5">
-        <v>7656</v>
-      </c>
-      <c r="T17" s="7">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="U17" s="7">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X17" s="7">
+      <c r="W17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X17" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -2507,7 +2564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X204"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2522,7 +2581,9 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2546,18 +2607,18 @@
       <c r="X1" s="1"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2598,15 +2659,105 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="7">
+        <v>35796</v>
+      </c>
+      <c r="H5" s="7">
+        <v>35797</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="7">
+        <v>35797</v>
+      </c>
+      <c r="H6" s="7">
+        <v>35797</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="7">
+        <v>35798</v>
+      </c>
+      <c r="H7" s="7">
+        <v>35797</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA7DAB-F222-9046-991A-299D208CC5D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE2E118-C55D-8048-9357-AFDB9DC6A174}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="-18540" windowWidth="24600" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="-20040" windowWidth="27240" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mIF_template" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="95">
   <si>
     <t>#t</t>
   </si>
@@ -254,37 +254,31 @@
     <t>AR INCUBATION TIME</t>
   </si>
   <si>
-    <t>CIMAC_PARTICPANT_ID</t>
-  </si>
-  <si>
-    <t>CIMAC_SAMPLE_ID</t>
-  </si>
-  <si>
-    <t>INTERNAL_SLIDE_ID</t>
-  </si>
-  <si>
-    <t>TIME_POINT</t>
-  </si>
-  <si>
-    <t>PROTOCOL_NAME</t>
-  </si>
-  <si>
-    <t>STAINING_DATE</t>
-  </si>
-  <si>
-    <t>IMAGING_DATE</t>
-  </si>
-  <si>
-    <t>IMAGING_STATUS</t>
-  </si>
-  <si>
-    <t>PROJECT_QUPATH_FOLDER</t>
-  </si>
-  <si>
-    <t>EXPORTED_DATA_FOLDER</t>
-  </si>
-  <si>
-    <t>E4412</t>
+    <t>CIMAC PARTICPANT ID</t>
+  </si>
+  <si>
+    <t>CIMAC SAMPLE ID</t>
+  </si>
+  <si>
+    <t>INTERNAL SLIDE ID</t>
+  </si>
+  <si>
+    <t>TIME POINT</t>
+  </si>
+  <si>
+    <t>STAINING DATE</t>
+  </si>
+  <si>
+    <t>IMAGING DATE</t>
+  </si>
+  <si>
+    <t>IMAGING STATUS</t>
+  </si>
+  <si>
+    <t>PROJECT QUPATH FOLDER</t>
+  </si>
+  <si>
+    <t>EXPORTED DATA FOLDER</t>
   </si>
   <si>
     <t>DFCI</t>
@@ -302,7 +296,7 @@
     <t>Leica Bond RX</t>
   </si>
   <si>
-    <t>InForm</t>
+    <t>QuPath</t>
   </si>
   <si>
     <t>0.2.0</t>
@@ -311,7 +305,7 @@
     <t>watershed</t>
   </si>
   <si>
-    <t>proprietary</t>
+    <t>random forest classifier</t>
   </si>
   <si>
     <t>Celebi Lab Melanoma Project</t>
@@ -369,9 +363,6 @@
   </si>
   <si>
     <t>IgG</t>
-  </si>
-  <si>
-    <t>RTU</t>
   </si>
   <si>
     <t>Goat Anti-rabbit</t>
@@ -534,6 +525,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -543,14 +537,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X215"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -906,31 +897,31 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -939,8 +930,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
+      <c r="C2" s="1">
+        <v>10021</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -972,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1004,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1036,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1068,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1100,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1132,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1164,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1196,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1228,7 +1219,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1260,7 +1251,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1285,31 +1276,31 @@
       <c r="X12" s="1"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1389,73 +1380,73 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="5">
+        <v>23487852</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="I16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="4">
-        <v>23487852</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="L16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="M16" s="5">
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="N16" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="P16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="4">
-        <v>9.722222222222221E-2</v>
-      </c>
-      <c r="N16" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="O16" s="4" t="s">
+      <c r="Q16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="R16" s="5">
+        <v>213423</v>
+      </c>
+      <c r="S16" s="5">
+        <v>5645</v>
+      </c>
+      <c r="T16" s="8">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="U16" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="V16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="W16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="R16" s="4">
-        <v>213423</v>
-      </c>
-      <c r="S16" s="4">
-        <v>5645</v>
-      </c>
-      <c r="T16" s="6">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="U16" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X16" s="6">
+      <c r="X16" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -1463,73 +1454,73 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="5">
+        <v>87354867</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="L17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4">
-        <v>87354867</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="M17" s="5">
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="N17" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="Q17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R17" s="5">
+        <v>645456</v>
+      </c>
+      <c r="S17" s="5">
+        <v>7656</v>
+      </c>
+      <c r="T17" s="8">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="U17" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N17" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R17" s="4">
-        <v>645456</v>
-      </c>
-      <c r="S17" s="4">
-        <v>7656</v>
-      </c>
-      <c r="T17" s="6">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="U17" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="X17" s="6">
+      <c r="X17" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -2564,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2581,8 +2572,8 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
+      <c r="C1" s="1">
+        <v>10021</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2607,18 +2598,18 @@
       <c r="X1" s="1"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2637,42 +2628,42 @@
         <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="G5" s="7">
         <v>35796</v>
@@ -2680,34 +2671,34 @@
       <c r="H5" s="7">
         <v>35797</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>88</v>
+      <c r="I5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>86</v>
+      <c r="F6" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="G6" s="7">
         <v>35797</v>
@@ -2715,34 +2706,34 @@
       <c r="H6" s="7">
         <v>35797</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>88</v>
+      <c r="I6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>86</v>
+      <c r="F7" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="G7" s="7">
         <v>35798</v>
@@ -2750,14 +2741,14 @@
       <c r="H7" s="7">
         <v>35797</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>88</v>
+      <c r="I7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA7DAB-F222-9046-991A-299D208CC5D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C589929-7ADD-9747-A07C-ADF67A95A7B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="-18540" windowWidth="24600" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2140" yWindow="-19240" windowWidth="30040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mIF_template" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="96">
   <si>
     <t>#t</t>
   </si>
@@ -254,34 +254,31 @@
     <t>AR INCUBATION TIME</t>
   </si>
   <si>
-    <t>CIMAC_PARTICPANT_ID</t>
-  </si>
-  <si>
-    <t>CIMAC_SAMPLE_ID</t>
-  </si>
-  <si>
-    <t>INTERNAL_SLIDE_ID</t>
-  </si>
-  <si>
-    <t>TIME_POINT</t>
-  </si>
-  <si>
-    <t>PROTOCOL_NAME</t>
-  </si>
-  <si>
-    <t>STAINING_DATE</t>
-  </si>
-  <si>
-    <t>IMAGING_DATE</t>
-  </si>
-  <si>
-    <t>IMAGING_STATUS</t>
-  </si>
-  <si>
-    <t>PROJECT_QUPATH_FOLDER</t>
-  </si>
-  <si>
-    <t>EXPORTED_DATA_FOLDER</t>
+    <t>CIMAC PARTICPANT ID</t>
+  </si>
+  <si>
+    <t>CIMAC SAMPLE ID</t>
+  </si>
+  <si>
+    <t>INTERNAL SLIDE ID</t>
+  </si>
+  <si>
+    <t>TIME POINT</t>
+  </si>
+  <si>
+    <t>STAINING DATE</t>
+  </si>
+  <si>
+    <t>IMAGING DATE</t>
+  </si>
+  <si>
+    <t>IMAGING STATUS</t>
+  </si>
+  <si>
+    <t>PROJECT QUPATH FOLDER</t>
+  </si>
+  <si>
+    <t>EXPORTED DATA FOLDER</t>
   </si>
   <si>
     <t>E4412</t>
@@ -299,15 +296,15 @@
     <t>auto</t>
   </si>
   <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>InForm</t>
+  </si>
+  <si>
     <t>Leica Bond RX</t>
   </si>
   <si>
-    <t>InForm</t>
-  </si>
-  <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
     <t>watershed</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
   </si>
   <si>
     <t>IgG</t>
-  </si>
-  <si>
-    <t>RTU</t>
   </si>
   <si>
     <t>Goat Anti-rabbit</t>
@@ -488,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -522,17 +516,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -546,11 +589,26 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X215"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -906,31 +964,31 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -940,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -972,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1004,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1036,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1068,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1100,7 +1158,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1132,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1164,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1196,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1228,7 +1286,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1260,7 +1318,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1285,31 +1343,31 @@
       <c r="X12" s="1"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1389,73 +1447,73 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="5">
+        <v>23487852</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="4">
-        <v>23487852</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="5">
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="4">
-        <v>9.722222222222221E-2</v>
-      </c>
-      <c r="N16" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="5">
+        <v>213423</v>
+      </c>
+      <c r="S16" s="5">
+        <v>5645</v>
+      </c>
+      <c r="T16" s="7">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="U16" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="V16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="R16" s="4">
-        <v>213423</v>
-      </c>
-      <c r="S16" s="4">
-        <v>5645</v>
-      </c>
-      <c r="T16" s="6">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="U16" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="V16" s="4" t="s">
+      <c r="W16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="W16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X16" s="6">
+      <c r="X16" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -1463,73 +1521,73 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="5">
+        <v>87354867</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4">
-        <v>87354867</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="5">
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="Q17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="5">
+        <v>645456</v>
+      </c>
+      <c r="S17" s="5">
+        <v>7656</v>
+      </c>
+      <c r="T17" s="7">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="U17" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R17" s="4">
-        <v>645456</v>
-      </c>
-      <c r="S17" s="4">
-        <v>7656</v>
-      </c>
-      <c r="T17" s="6">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="U17" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="X17" s="6">
+      <c r="X17" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -2564,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2582,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2607,18 +2665,18 @@
       <c r="X1" s="1"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2637,127 +2695,127 @@
         <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="10">
+        <v>35796</v>
+      </c>
+      <c r="H5" s="10">
+        <v>35797</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="K5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="7">
-        <v>35796</v>
-      </c>
-      <c r="H5" s="7">
+    </row>
+    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="13">
         <v>35797</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="H6" s="13">
+        <v>35797</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="C7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="D7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="13">
+        <v>35798</v>
+      </c>
+      <c r="H7" s="13">
+        <v>35797</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="G6" s="7">
-        <v>35797</v>
-      </c>
-      <c r="H6" s="7">
-        <v>35797</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="7">
-        <v>35798</v>
-      </c>
-      <c r="H7" s="7">
-        <v>35797</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -3750,8 +3808,8 @@
     <mergeCell ref="B3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="G5:H204" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>AND(ISNUMBER(G5:G204),LEFT(CELL("format",G5:G204),1)="D")</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="G8:H204" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>AND(ISNUMBER(G8:G207),LEFT(CELL("format",G8:G207),1)="D")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I204" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Yes,No"</formula1>

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA7DAB-F222-9046-991A-299D208CC5D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24233622-8272-8744-887F-3743A84E1204}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="-18540" windowWidth="24600" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="26040" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mIF_template" sheetId="1" r:id="rId1"/>
+    <sheet name="micsss" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="97">
   <si>
     <t>#t</t>
   </si>
@@ -284,13 +284,10 @@
     <t>EXPORTED_DATA_FOLDER</t>
   </si>
   <si>
-    <t>E4412</t>
-  </si>
-  <si>
     <t>DFCI</t>
   </si>
   <si>
-    <t>Multiplex Immunohistochemistry</t>
+    <t>Whole Exome Sequencing (WES)</t>
   </si>
   <si>
     <t>Vectra 2.0</t>
@@ -308,13 +305,10 @@
     <t>0.2.0</t>
   </si>
   <si>
-    <t>watershed</t>
-  </si>
-  <si>
     <t>proprietary</t>
   </si>
   <si>
-    <t>Celebi Lab Melanoma Project</t>
+    <t>Cellebi Lab Melanoma Project</t>
   </si>
   <si>
     <t>FOXP3</t>
@@ -338,6 +332,9 @@
     <t>IgG1</t>
   </si>
   <si>
+    <t>2hr</t>
+  </si>
+  <si>
     <t>RT</t>
   </si>
   <si>
@@ -347,6 +344,9 @@
     <t>Dako</t>
   </si>
   <si>
+    <t>1:20</t>
+  </si>
+  <si>
     <t>Dako Target Retrieval</t>
   </si>
   <si>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t>IgG</t>
-  </si>
-  <si>
-    <t>RTU</t>
   </si>
   <si>
     <t>Goat Anti-rabbit</t>
@@ -534,6 +531,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -548,9 +548,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X215"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -906,31 +903,31 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -939,8 +936,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
+      <c r="C2" s="1">
+        <v>10021</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -972,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1004,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1036,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1068,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1100,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1132,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1164,7 +1161,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1196,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1228,7 +1225,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1260,7 +1257,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1285,31 +1282,31 @@
       <c r="X12" s="1"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1389,73 +1386,73 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="5">
+        <v>23487852</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="I16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="4">
-        <v>23487852</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="L16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="M16" s="5">
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="O16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="4">
-        <v>9.722222222222221E-2</v>
-      </c>
-      <c r="N16" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R16" s="4">
+      <c r="R16" s="5">
         <v>213423</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="5">
         <v>5645</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="7">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="V16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="W16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="X16" s="6">
+      <c r="X16" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -1463,74 +1460,74 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>87354867</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>2</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="H17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="5">
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="5">
+        <v>645456</v>
+      </c>
+      <c r="S17" s="5">
+        <v>7656</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U17" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="W17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R17" s="4">
-        <v>645456</v>
-      </c>
-      <c r="S17" s="4">
-        <v>7656</v>
-      </c>
-      <c r="T17" s="6">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="U17" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="X17" s="6">
-        <v>2.0833333333333332E-2</v>
+      <c r="X17" s="7">
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2564,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2581,8 +2578,8 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
+      <c r="C1" s="1">
+        <v>10021</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2607,18 +2604,18 @@
       <c r="X1" s="1"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2659,105 +2656,105 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="8">
+        <v>35796</v>
+      </c>
+      <c r="H5" s="8">
+        <v>35797</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="7">
-        <v>35796</v>
-      </c>
-      <c r="H5" s="7">
-        <v>35797</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="8">
+        <v>35797</v>
+      </c>
+      <c r="H6" s="8">
+        <v>35797</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="7">
-        <v>35797</v>
-      </c>
-      <c r="H6" s="7">
-        <v>35797</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="8">
+        <v>35798</v>
+      </c>
+      <c r="H7" s="8">
+        <v>35797</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="7">
-        <v>35798</v>
-      </c>
-      <c r="H7" s="7">
-        <v>35797</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24233622-8272-8744-887F-3743A84E1204}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7996CD-D0CC-AA40-A08F-EB1DFCA02213}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="26040" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,19 +49,6 @@
             <family val="2"/>
           </rPr>
           <t>Indicates what site is filling out the assay</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assay category.</t>
         </r>
       </text>
     </comment>
@@ -132,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="95">
   <si>
     <t>#t</t>
   </si>
@@ -149,9 +136,6 @@
     <t>ASSAY CREATOR</t>
   </si>
   <si>
-    <t>ASSAY CATEGORY</t>
-  </si>
-  <si>
     <t>SLIDE SCANNER MODEL</t>
   </si>
   <si>
@@ -285,9 +269,6 @@
   </si>
   <si>
     <t>DFCI</t>
-  </si>
-  <si>
-    <t>Whole Exome Sequencing (WES)</t>
   </si>
   <si>
     <t>Vectra 2.0</t>
@@ -531,9 +512,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -548,6 +526,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X215"/>
+  <dimension ref="A1:X214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -903,31 +884,31 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -969,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1001,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1033,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1065,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1097,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1121,7 +1102,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1129,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1153,7 +1134,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1161,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1193,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1225,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1249,1305 +1230,1270 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="4">
+        <v>23487852</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="4">
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" s="4">
+        <v>213423</v>
+      </c>
+      <c r="S15" s="4">
+        <v>5645</v>
+      </c>
+      <c r="T15" s="6">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="U15" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X15" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="4">
+        <v>87354867</v>
+      </c>
+      <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="5">
-        <v>23487852</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>63</v>
+      <c r="I16" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="4">
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="O16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="5">
-        <v>9.722222222222221E-2</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="5" t="s">
+      <c r="P16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="R16" s="4">
+        <v>645456</v>
+      </c>
+      <c r="S16" s="4">
+        <v>7656</v>
+      </c>
+      <c r="T16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="U16" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="V16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="R16" s="5">
-        <v>213423</v>
-      </c>
-      <c r="S16" s="5">
-        <v>5645</v>
-      </c>
-      <c r="T16" s="7">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="U16" s="7">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X16" s="7">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="W16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="X16" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="5">
-        <v>87354867</v>
-      </c>
-      <c r="G17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="5">
-        <v>9.722222222222221E-2</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R17" s="5">
-        <v>645456</v>
-      </c>
-      <c r="S17" s="5">
-        <v>7656</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U17" s="7">
-        <v>6.25E-2</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="X17" s="7">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:X1"/>
-    <mergeCell ref="B14:X14"/>
+    <mergeCell ref="B13:X13"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"DFCI,Mount Sinai, Stanford, MD Anderson"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"Whole Exome Sequencing (WES),RNASeq,Conventional Immunohistochemistry,Multiplex Immunohistochemistry,Multiplex Immunofluorescence,CyTOF,OLink,NanoString,ELISpot,Multiplexed Ion-Beam Imaging (MIBI),Other,None"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"InForm,QuPath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"proprietary,watershed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"proprietary,random forest classifier"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="N16:N215 X16:X215 U16:U215" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="N15:N214 X15:X214 U15:U214" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
@@ -2604,1142 +2550,1142 @@
       <c r="X1" s="1"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="7">
+        <v>35796</v>
+      </c>
+      <c r="H5" s="7">
+        <v>35797</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="G5" s="8">
-        <v>35796</v>
-      </c>
-      <c r="H5" s="8">
-        <v>35797</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="7">
+        <v>35797</v>
+      </c>
+      <c r="H6" s="7">
+        <v>35797</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="G6" s="8">
-        <v>35797</v>
-      </c>
-      <c r="H6" s="8">
-        <v>35797</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="7">
+        <v>35798</v>
+      </c>
+      <c r="H7" s="7">
+        <v>35797</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="J7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="G7" s="8">
-        <v>35798</v>
-      </c>
-      <c r="H7" s="8">
-        <v>35797</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7996CD-D0CC-AA40-A08F-EB1DFCA02213}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD4016C-6D4A-3540-AA5A-E33C513BBD34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="26040" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="26040" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="micsss" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -238,9 +238,6 @@
     <t>AR INCUBATION TIME</t>
   </si>
   <si>
-    <t>CIMAC_PARTICPANT_ID</t>
-  </si>
-  <si>
     <t>CIMAC_SAMPLE_ID</t>
   </si>
   <si>
@@ -404,13 +401,16 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>CIMAC_PARTICIPANT_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +438,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -870,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -950,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -982,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1014,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1046,7 +1052,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1078,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1110,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1142,7 +1148,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1174,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1206,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1336,16 +1342,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F15" s="4">
         <v>23487852</v>
@@ -1354,34 +1360,34 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="M15" s="4">
         <v>9.722222222222221E-2</v>
       </c>
       <c r="N15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="R15" s="4">
         <v>213423</v>
@@ -1396,10 +1402,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="V15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W15" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="X15" s="6">
         <v>2.0833333333333332E-2</v>
@@ -1410,16 +1416,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="F16" s="4">
         <v>87354867</v>
@@ -1428,34 +1434,34 @@
         <v>2</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="M16" s="4">
         <v>9.722222222222221E-2</v>
       </c>
       <c r="N16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="P16" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R16" s="4">
         <v>645456</v>
@@ -1464,16 +1470,16 @@
         <v>7656</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U16" s="6">
         <v>6.25E-2</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X16" s="6">
         <v>6.25E-2</v>
@@ -2507,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X204"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2568,34 +2574,34 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -2603,19 +2609,19 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="G5" s="7">
         <v>35796</v>
@@ -2624,13 +2630,13 @@
         <v>35797</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -2638,19 +2644,19 @@
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="7">
         <v>35797</v>
@@ -2659,13 +2665,13 @@
         <v>35797</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -2673,19 +2679,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7">
         <v>35798</v>
@@ -2694,13 +2700,13 @@
         <v>35797</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD4016C-6D4A-3540-AA5A-E33C513BBD34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B65A045-D6C3-FD46-A56C-C68164BD5B2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="26040" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,19 +2511,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X204"/>
+  <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X1" sqref="L1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="101" width="30.6640625" customWidth="1"/>
+    <col min="2" max="88" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2541,21 +2541,8 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -2569,7 +2556,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2604,7 +2591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2639,7 +2626,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2674,7 +2661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2709,47 +2696,47 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B65A045-D6C3-FD46-A56C-C68164BD5B2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C76D3C-34CB-174E-887E-E42652A60855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="26040" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X1" sqref="L1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C76D3C-34CB-174E-887E-E42652A60855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619B84D-CA80-8741-83EA-12D7254A4404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="26040" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="2920" windowWidth="26040" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="micsss" sheetId="1" r:id="rId1"/>
@@ -355,12 +355,6 @@
     <t>pH9</t>
   </si>
   <si>
-    <t>MA036-001</t>
-  </si>
-  <si>
-    <t>MA036-001 PRE</t>
-  </si>
-  <si>
     <t>07FK 099</t>
   </si>
   <si>
@@ -376,24 +370,12 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>MA036-002</t>
-  </si>
-  <si>
-    <t>BS-18-38992 A2</t>
-  </si>
-  <si>
     <t>4KHI 021</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>MA036-003</t>
-  </si>
-  <si>
-    <t>MA036-003 C1D1</t>
-  </si>
-  <si>
     <t>8KBI 022</t>
   </si>
   <si>
@@ -404,13 +386,31 @@
   </si>
   <si>
     <t>CIMAC_PARTICIPANT_ID</t>
+  </si>
+  <si>
+    <t>C036001</t>
+  </si>
+  <si>
+    <t>C036002</t>
+  </si>
+  <si>
+    <t>C036003</t>
+  </si>
+  <si>
+    <t>C036001PR.00</t>
+  </si>
+  <si>
+    <t>C036002PR.00</t>
+  </si>
+  <si>
+    <t>C036003PR.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +443,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -510,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -533,6 +539,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -890,31 +897,31 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1237,31 +1244,31 @@
       <c r="X11" s="1"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2514,7 +2521,7 @@
   <dimension ref="A1:K204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2543,25 +2550,25 @@
       <c r="K1" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -2595,20 +2602,20 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="G5" s="7">
         <v>35796</v>
@@ -2617,33 +2624,33 @@
         <v>35797</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>86</v>
+      <c r="B6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="7">
         <v>35797</v>
@@ -2652,33 +2659,33 @@
         <v>35797</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>90</v>
+      <c r="B7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7">
         <v>35798</v>
@@ -2687,13 +2694,13 @@
         <v>35797</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3694,6 +3701,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619B84D-CA80-8741-83EA-12D7254A4404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A563B7BD-DE0D-FB45-AD51-A7A42877DD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="2920" windowWidth="26040" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,10 +539,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,31 +897,31 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1244,31 +1244,31 @@
       <c r="X11" s="1"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2521,7 +2521,7 @@
   <dimension ref="A1:K204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2550,18 +2550,18 @@
       <c r="K1" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2602,10 +2602,10 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2637,10 +2637,10 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2672,10 +2672,10 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="4" t="s">

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B65A045-D6C3-FD46-A56C-C68164BD5B2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A563B7BD-DE0D-FB45-AD51-A7A42877DD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="26040" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="2920" windowWidth="26040" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="micsss" sheetId="1" r:id="rId1"/>
@@ -355,12 +355,6 @@
     <t>pH9</t>
   </si>
   <si>
-    <t>MA036-001</t>
-  </si>
-  <si>
-    <t>MA036-001 PRE</t>
-  </si>
-  <si>
     <t>07FK 099</t>
   </si>
   <si>
@@ -376,24 +370,12 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>MA036-002</t>
-  </si>
-  <si>
-    <t>BS-18-38992 A2</t>
-  </si>
-  <si>
     <t>4KHI 021</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>MA036-003</t>
-  </si>
-  <si>
-    <t>MA036-003 C1D1</t>
-  </si>
-  <si>
     <t>8KBI 022</t>
   </si>
   <si>
@@ -404,13 +386,31 @@
   </si>
   <si>
     <t>CIMAC_PARTICIPANT_ID</t>
+  </si>
+  <si>
+    <t>C036001</t>
+  </si>
+  <si>
+    <t>C036002</t>
+  </si>
+  <si>
+    <t>C036003</t>
+  </si>
+  <si>
+    <t>C036001PR.00</t>
+  </si>
+  <si>
+    <t>C036002PR.00</t>
+  </si>
+  <si>
+    <t>C036003PR.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +443,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -510,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -536,6 +542,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2513,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X1" sqref="L1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2561,7 +2568,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
@@ -2595,20 +2602,20 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="G5" s="7">
         <v>35796</v>
@@ -2617,33 +2624,33 @@
         <v>35797</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>86</v>
+      <c r="B6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="7">
         <v>35797</v>
@@ -2652,33 +2659,33 @@
         <v>35797</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>90</v>
+      <c r="B7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7">
         <v>35798</v>
@@ -2687,13 +2694,13 @@
         <v>35797</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3694,6 +3701,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A563B7BD-DE0D-FB45-AD51-A7A42877DD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A7A574-56A2-8445-9C8A-0C44E7FC094F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="2920" windowWidth="26040" windowHeight="13700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="2920" windowWidth="26040" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="micsss" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="96">
   <si>
     <t>#t</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>C036003PR.00</t>
+  </si>
+  <si>
+    <t>test_prism_trial_id</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X214"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -893,45 +896,45 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-    </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+    </row>
+    <row r="2" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>10021</v>
+      <c r="C2" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -955,7 +958,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1244,31 +1247,31 @@
       <c r="X11" s="1"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2520,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2537,8 +2540,8 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1">
-        <v>10021</v>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2550,18 +2553,18 @@
       <c r="K1" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2602,10 +2605,10 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2637,10 +2640,10 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2672,10 +2675,10 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="4" t="s">

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -594,7 +594,7 @@
     <row r="1" ht="16" customHeight="1" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="9" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="2" ht="17" customHeight="1" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="3" ht="17" customHeight="1" thickBot="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -704,7 +704,7 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -742,7 +742,7 @@
     <row r="5" ht="16" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="6" ht="16" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -818,7 +818,7 @@
     <row r="7" ht="16" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="8" ht="32" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -894,7 +894,7 @@
     <row r="9" ht="16" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -932,7 +932,7 @@
     <row r="10" ht="16" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -970,7 +970,7 @@
     <row r="11" ht="16" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -1009,7 +1009,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B13" s="9" t="inlineStr">
@@ -1043,7 +1043,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -1271,7 +1271,7 @@
     <row r="16" ht="16" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
@@ -1379,1386 +1379,1386 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
     <row r="1" ht="17" customHeight="1" thickBot="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2843,7 +2843,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -2864,7 +2864,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B5" s="8" t="inlineStr">
@@ -2974,7 +2974,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B6" s="8" t="inlineStr">
@@ -3027,7 +3027,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B7" s="8" t="inlineStr">
@@ -3080,1379 +3080,1379 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/micsss_template.xlsx
+++ b/template_examples/micsss_template.xlsx
@@ -587,7 +587,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -1005,7 +1005,6 @@
       <c r="W11" s="1" t="n"/>
       <c r="X11" s="1" t="n"/>
     </row>
-    <row r="12"/>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
@@ -2810,7 +2809,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="88"/>
   </cols>
   <sheetData>
@@ -2839,7 +2838,6 @@
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
